--- a/q-excel-correlation-heatmap.xlsx
+++ b/q-excel-correlation-heatmap.xlsx
@@ -1,42 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+  </bookViews>
   <sheets>
-    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId1"/>
+    <sheet name="Supply_Chain_Data" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+  <si>
+    <t>Supplier_Lead_Time</t>
+  </si>
+  <si>
+    <t>Inventory_Levels</t>
+  </si>
+  <si>
+    <t>Order_Frequency</t>
+  </si>
+  <si>
+    <t>Delivery_Performance</t>
+  </si>
+  <si>
+    <t>Cost_Per_Unit</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -52,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -60,18 +74,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,1375 +443,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.33580453911403951</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.92165638504548186</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.33536314403134526</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.92322544083703806</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.2447134798293234</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84561265995421286</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.9646996392967</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.35021393744738832</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.89077666774642239</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.9247997646119529</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E80"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Supplier_Lead_Time</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Inventory_Levels</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Order_Frequency</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Delivery_Performance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Cost_Per_Unit</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.8</v>
       </c>
       <c r="B2">
-        <v>326</v>
+        <v>10.8</v>
       </c>
       <c r="C2">
-        <v>7.9</v>
+        <v>10.8</v>
       </c>
       <c r="D2">
-        <v>85.5</v>
+        <v>10.8</v>
       </c>
       <c r="E2">
-        <v>26.59</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>10.3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>92.3</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>20.96</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C4">
-        <v>9.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D4">
-        <v>88.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E4">
-        <v>21.53</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14.2</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>14.2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>14.2</v>
       </c>
       <c r="D5">
-        <v>83.2</v>
+        <v>14.2</v>
       </c>
       <c r="E5">
-        <v>29.53</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>75.5</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>31.68</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.2</v>
       </c>
       <c r="B7">
-        <v>355</v>
+        <v>5.2</v>
       </c>
       <c r="C7">
-        <v>10.4</v>
+        <v>5.2</v>
       </c>
       <c r="D7">
-        <v>92.5</v>
+        <v>5.2</v>
       </c>
       <c r="E7">
-        <v>20.78</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15.5</v>
       </c>
       <c r="B8">
-        <v>392</v>
+        <v>15.5</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>15.5</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>15.5</v>
       </c>
       <c r="E8">
-        <v>28.81</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18.8</v>
       </c>
       <c r="B9">
-        <v>129</v>
+        <v>18.8</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>18.8</v>
       </c>
       <c r="D9">
-        <v>75.1</v>
+        <v>18.8</v>
       </c>
       <c r="E9">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.9</v>
       </c>
       <c r="B10">
-        <v>425</v>
+        <v>8.9</v>
       </c>
       <c r="C10">
-        <v>8.8</v>
+        <v>8.9</v>
       </c>
       <c r="D10">
-        <v>86.7</v>
+        <v>8.9</v>
       </c>
       <c r="E10">
-        <v>25.86</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>86.4</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>22.83</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18.2</v>
       </c>
       <c r="B12">
-        <v>276</v>
+        <v>18.2</v>
       </c>
       <c r="C12">
-        <v>4.2</v>
+        <v>18.2</v>
       </c>
       <c r="D12">
-        <v>74.5</v>
+        <v>18.2</v>
       </c>
       <c r="E12">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.9</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>5.9</v>
       </c>
       <c r="C13">
-        <v>10.7</v>
+        <v>5.9</v>
       </c>
       <c r="D13">
-        <v>88.8</v>
+        <v>5.9</v>
       </c>
       <c r="E13">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>446</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>79.9</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>28.34</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.1</v>
       </c>
       <c r="B15">
-        <v>447</v>
+        <v>8.1</v>
       </c>
       <c r="C15">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="D15">
-        <v>90.7</v>
+        <v>8.1</v>
       </c>
       <c r="E15">
-        <v>23.26</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>91.5</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>24.26</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="B17">
-        <v>378</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D17">
-        <v>72.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E17">
-        <v>34.66</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.2</v>
       </c>
       <c r="B18">
-        <v>501</v>
+        <v>18.2</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>18.2</v>
       </c>
       <c r="D18">
-        <v>76.8</v>
+        <v>18.2</v>
       </c>
       <c r="E18">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.9</v>
       </c>
       <c r="B19">
-        <v>419</v>
+        <v>6.9</v>
       </c>
       <c r="C19">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="D19">
-        <v>92.6</v>
+        <v>6.9</v>
       </c>
       <c r="E19">
-        <v>22.51</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>87.8</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>26.87</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>87.9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>26.12</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B22">
-        <v>384</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C22">
-        <v>4.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D22">
-        <v>76.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E22">
-        <v>31.17</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12.4</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>12.4</v>
       </c>
       <c r="C23">
-        <v>5.6</v>
+        <v>12.4</v>
       </c>
       <c r="D23">
-        <v>80.1</v>
+        <v>12.4</v>
       </c>
       <c r="E23">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10.9</v>
       </c>
       <c r="B24">
-        <v>421</v>
+        <v>10.9</v>
       </c>
       <c r="C24">
-        <v>6.7</v>
+        <v>10.9</v>
       </c>
       <c r="D24">
-        <v>82.3</v>
+        <v>10.9</v>
       </c>
       <c r="E24">
-        <v>26.31</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B25">
-        <v>372</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="C25">
-        <v>4.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D25">
-        <v>78.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E25">
-        <v>33.24</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19.8</v>
       </c>
       <c r="B26">
-        <v>540</v>
+        <v>19.8</v>
       </c>
       <c r="C26">
-        <v>3.3</v>
+        <v>19.8</v>
       </c>
       <c r="D26">
-        <v>72.6</v>
+        <v>19.8</v>
       </c>
       <c r="E26">
-        <v>33.13</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7.1</v>
       </c>
       <c r="B27">
-        <v>363</v>
+        <v>7.1</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="D27">
-        <v>86.1</v>
+        <v>7.1</v>
       </c>
       <c r="E27">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19.2</v>
       </c>
       <c r="B28">
-        <v>196</v>
+        <v>19.2</v>
       </c>
       <c r="C28">
-        <v>5.1</v>
+        <v>19.2</v>
       </c>
       <c r="D28">
-        <v>73.6</v>
+        <v>19.2</v>
       </c>
       <c r="E28">
-        <v>33.25</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15.6</v>
       </c>
       <c r="B29">
-        <v>441</v>
+        <v>15.6</v>
       </c>
       <c r="C29">
-        <v>4.9</v>
+        <v>15.6</v>
       </c>
       <c r="D29">
-        <v>78.3</v>
+        <v>15.6</v>
       </c>
       <c r="E29">
-        <v>29.07</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19.3</v>
       </c>
       <c r="B30">
-        <v>472</v>
+        <v>19.3</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>19.3</v>
       </c>
       <c r="D30">
-        <v>74.4</v>
+        <v>19.3</v>
       </c>
       <c r="E30">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17.2</v>
       </c>
       <c r="B31">
-        <v>244</v>
+        <v>17.2</v>
       </c>
       <c r="C31">
-        <v>5.1</v>
+        <v>17.2</v>
       </c>
       <c r="D31">
-        <v>79.8</v>
+        <v>17.2</v>
       </c>
       <c r="E31">
-        <v>30.67</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13.9</v>
       </c>
       <c r="B32">
-        <v>185</v>
+        <v>13.9</v>
       </c>
       <c r="C32">
-        <v>6.4</v>
+        <v>13.9</v>
       </c>
       <c r="D32">
-        <v>77.8</v>
+        <v>13.9</v>
       </c>
       <c r="E32">
-        <v>30.37</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
       <c r="B33">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>72.2</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>33.67</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11.4</v>
       </c>
       <c r="B34">
-        <v>246</v>
+        <v>11.4</v>
       </c>
       <c r="C34">
-        <v>5.9</v>
+        <v>11.4</v>
       </c>
       <c r="D34">
-        <v>87.5</v>
+        <v>11.4</v>
       </c>
       <c r="E34">
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.9</v>
       </c>
       <c r="B35">
-        <v>222</v>
+        <v>6.9</v>
       </c>
       <c r="C35">
-        <v>10.7</v>
+        <v>6.9</v>
       </c>
       <c r="D35">
-        <v>90.4</v>
+        <v>6.9</v>
       </c>
       <c r="E35">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.1</v>
       </c>
       <c r="B36">
-        <v>215</v>
+        <v>6.1</v>
       </c>
       <c r="C36">
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="D36">
-        <v>91.6</v>
+        <v>6.1</v>
       </c>
       <c r="E36">
-        <v>19.29</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12.8</v>
       </c>
       <c r="B37">
-        <v>296</v>
+        <v>12.8</v>
       </c>
       <c r="C37">
-        <v>6.3</v>
+        <v>12.8</v>
       </c>
       <c r="D37">
-        <v>83.5</v>
+        <v>12.8</v>
       </c>
       <c r="E37">
-        <v>29.05</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>84.5</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>27.66</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B39">
-        <v>518</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C39">
-        <v>4.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D39">
-        <v>74.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E39">
-        <v>32.39</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B40">
-        <v>339</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D40">
-        <v>72.9</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E40">
-        <v>33.64</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B41">
-        <v>476</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C41">
-        <v>4.5</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D41">
-        <v>72.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E41">
-        <v>34.56</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16.2</v>
       </c>
       <c r="B42">
-        <v>511</v>
+        <v>16.2</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>16.2</v>
       </c>
       <c r="D42">
-        <v>79.3</v>
+        <v>16.2</v>
       </c>
       <c r="E42">
-        <v>32.96</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6.3</v>
       </c>
       <c r="B43">
-        <v>417</v>
+        <v>6.3</v>
       </c>
       <c r="C43">
-        <v>8.8</v>
+        <v>6.3</v>
       </c>
       <c r="D43">
-        <v>93.2</v>
+        <v>6.3</v>
       </c>
       <c r="E43">
-        <v>22.93</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7.9</v>
       </c>
       <c r="B44">
-        <v>299</v>
+        <v>7.9</v>
       </c>
       <c r="C44">
-        <v>8.3</v>
+        <v>7.9</v>
       </c>
       <c r="D44">
-        <v>85</v>
+        <v>7.9</v>
       </c>
       <c r="E44">
-        <v>23.82</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="B45">
-        <v>509</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C45">
-        <v>5.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D45">
-        <v>77</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E45">
-        <v>33.59</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12.7</v>
       </c>
       <c r="B46">
-        <v>180</v>
+        <v>12.7</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>12.7</v>
       </c>
       <c r="D46">
-        <v>82</v>
+        <v>12.7</v>
       </c>
       <c r="E46">
-        <v>27.14</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13.4</v>
       </c>
       <c r="B47">
-        <v>319</v>
+        <v>13.4</v>
       </c>
       <c r="C47">
-        <v>5.7</v>
+        <v>13.4</v>
       </c>
       <c r="D47">
-        <v>82.4</v>
+        <v>13.4</v>
       </c>
       <c r="E47">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8.4</v>
       </c>
       <c r="B48">
-        <v>288</v>
+        <v>8.4</v>
       </c>
       <c r="C48">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D48">
-        <v>89.1</v>
+        <v>8.4</v>
       </c>
       <c r="E48">
-        <v>22.05</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19</v>
       </c>
       <c r="B49">
-        <v>542</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>2.9</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>76.9</v>
+        <v>19</v>
       </c>
       <c r="E49">
-        <v>31.79</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="B50">
-        <v>343</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C50">
-        <v>5.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D50">
-        <v>71.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E50">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18.8</v>
       </c>
       <c r="B51">
-        <v>348</v>
+        <v>18.8</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>18.8</v>
       </c>
       <c r="D51">
-        <v>72.5</v>
+        <v>18.8</v>
       </c>
       <c r="E51">
-        <v>32.98</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17.2</v>
       </c>
       <c r="B52">
-        <v>461</v>
+        <v>17.2</v>
       </c>
       <c r="C52">
-        <v>5.9</v>
+        <v>17.2</v>
       </c>
       <c r="D52">
-        <v>81.2</v>
+        <v>17.2</v>
       </c>
       <c r="E52">
-        <v>30.22</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
       <c r="B53">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>75.8</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="B54">
-        <v>169</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C54">
-        <v>6.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D54">
-        <v>75.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E54">
-        <v>32.47</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10.9</v>
       </c>
       <c r="B55">
-        <v>452</v>
+        <v>10.9</v>
       </c>
       <c r="C55">
-        <v>8.9</v>
+        <v>10.9</v>
       </c>
       <c r="D55">
-        <v>87.4</v>
+        <v>10.9</v>
       </c>
       <c r="E55">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B56">
-        <v>314</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D56">
-        <v>72</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E56">
-        <v>33.21</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.1</v>
       </c>
       <c r="B57">
-        <v>295</v>
+        <v>11.1</v>
       </c>
       <c r="C57">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="D57">
-        <v>88.7</v>
+        <v>11.1</v>
       </c>
       <c r="E57">
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B58">
-        <v>371</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C58">
-        <v>7.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D58">
-        <v>86</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E58">
-        <v>25.27</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>14.8</v>
       </c>
       <c r="B59">
-        <v>266</v>
+        <v>14.8</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>14.8</v>
       </c>
       <c r="D59">
-        <v>84.2</v>
+        <v>14.8</v>
       </c>
       <c r="E59">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B60">
-        <v>256</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C60">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D60">
-        <v>84.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E60">
-        <v>23.07</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12.2</v>
       </c>
       <c r="B61">
-        <v>108</v>
+        <v>12.2</v>
       </c>
       <c r="C61">
-        <v>6.6</v>
+        <v>12.2</v>
       </c>
       <c r="D61">
-        <v>85.6</v>
+        <v>12.2</v>
       </c>
       <c r="E61">
-        <v>25.15</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17.8</v>
       </c>
       <c r="B62">
-        <v>420</v>
+        <v>17.8</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>17.8</v>
       </c>
       <c r="D62">
-        <v>73.5</v>
+        <v>17.8</v>
       </c>
       <c r="E62">
-        <v>35.03</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6.5</v>
       </c>
       <c r="B63">
-        <v>384</v>
+        <v>6.5</v>
       </c>
       <c r="C63">
-        <v>9.7</v>
+        <v>6.5</v>
       </c>
       <c r="D63">
-        <v>86.2</v>
+        <v>6.5</v>
       </c>
       <c r="E63">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8.1</v>
       </c>
       <c r="B64">
-        <v>130</v>
+        <v>8.1</v>
       </c>
       <c r="C64">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="D64">
-        <v>88.4</v>
+        <v>8.1</v>
       </c>
       <c r="E64">
-        <v>23.78</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5.7</v>
       </c>
       <c r="B65">
-        <v>335</v>
+        <v>5.7</v>
       </c>
       <c r="C65">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="D65">
-        <v>87.8</v>
+        <v>5.7</v>
       </c>
       <c r="E65">
-        <v>22.86</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
       <c r="B66">
-        <v>221</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>8.3</v>
+        <v>10</v>
       </c>
       <c r="D66">
-        <v>88.3</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14.1</v>
       </c>
       <c r="B67">
-        <v>293</v>
+        <v>14.1</v>
       </c>
       <c r="C67">
-        <v>7.2</v>
+        <v>14.1</v>
       </c>
       <c r="D67">
-        <v>77.4</v>
+        <v>14.1</v>
       </c>
       <c r="E67">
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B68">
-        <v>316</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C68">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D68">
-        <v>83.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E68">
-        <v>23.08</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>14.9</v>
       </c>
       <c r="B69">
-        <v>440</v>
+        <v>14.9</v>
       </c>
       <c r="C69">
-        <v>6.2</v>
+        <v>14.9</v>
       </c>
       <c r="D69">
-        <v>80.4</v>
+        <v>14.9</v>
       </c>
       <c r="E69">
-        <v>28.69</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.6</v>
       </c>
       <c r="B70">
-        <v>400</v>
+        <v>15.6</v>
       </c>
       <c r="C70">
-        <v>6.2</v>
+        <v>15.6</v>
       </c>
       <c r="D70">
-        <v>78.5</v>
+        <v>15.6</v>
       </c>
       <c r="E70">
-        <v>31.43</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.9</v>
       </c>
       <c r="B71">
-        <v>118</v>
+        <v>8.9</v>
       </c>
       <c r="C71">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="D71">
-        <v>85.9</v>
+        <v>8.9</v>
       </c>
       <c r="E71">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.4</v>
       </c>
       <c r="B72">
-        <v>136</v>
+        <v>6.4</v>
       </c>
       <c r="C72">
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="D72">
-        <v>94.2</v>
+        <v>6.4</v>
       </c>
       <c r="E72">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19.7</v>
       </c>
       <c r="B73">
-        <v>185</v>
+        <v>19.7</v>
       </c>
       <c r="C73">
-        <v>3.9</v>
+        <v>19.7</v>
       </c>
       <c r="D73">
-        <v>71.7</v>
+        <v>19.7</v>
       </c>
       <c r="E73">
-        <v>34.64</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.7</v>
       </c>
       <c r="B74">
-        <v>102</v>
+        <v>5.7</v>
       </c>
       <c r="C74">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="D74">
-        <v>94.3</v>
+        <v>5.7</v>
       </c>
       <c r="E74">
-        <v>20.58</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14.4</v>
       </c>
       <c r="B75">
-        <v>503</v>
+        <v>14.4</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>14.4</v>
       </c>
       <c r="D75">
-        <v>84.7</v>
+        <v>14.4</v>
       </c>
       <c r="E75">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14.5</v>
       </c>
       <c r="B76">
-        <v>330</v>
+        <v>14.5</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="D76">
-        <v>83.6</v>
+        <v>14.5</v>
       </c>
       <c r="E76">
-        <v>30.88</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="B77">
-        <v>527</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C77">
-        <v>3.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D77">
-        <v>78.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E77">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12.8</v>
       </c>
       <c r="B78">
-        <v>428</v>
+        <v>12.8</v>
       </c>
       <c r="C78">
-        <v>8.1</v>
+        <v>12.8</v>
       </c>
       <c r="D78">
-        <v>83.7</v>
+        <v>12.8</v>
       </c>
       <c r="E78">
-        <v>29.07</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14.6</v>
       </c>
       <c r="B79">
-        <v>138</v>
+        <v>14.6</v>
       </c>
       <c r="C79">
-        <v>5.4</v>
+        <v>14.6</v>
       </c>
       <c r="D79">
-        <v>76.7</v>
+        <v>14.6</v>
       </c>
       <c r="E79">
-        <v>29.35</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12.2</v>
       </c>
       <c r="B80">
-        <v>314</v>
+        <v>12.2</v>
       </c>
       <c r="C80">
-        <v>7.1</v>
+        <v>12.2</v>
       </c>
       <c r="D80">
-        <v>81.6</v>
+        <v>12.2</v>
       </c>
       <c r="E80">
-        <v>27.46</v>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E80"/>
+    <ignoredError sqref="A1:A80" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>